--- a/data/validation_set.xlsx
+++ b/data/validation_set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockmtnins-my.sharepoint.com/personal/hamidreza_zoraghein_rmi_org/Documents/Development/llm/rag_cft/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockmtnins-my.sharepoint.com/personal/hamidreza_zoraghein_rmi_org/Documents/Development/rag_cft/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="57" documentId="8_{2D27B883-FC49-C14C-BAB8-CB60E64C3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA13DE2E-2B5D-0D41-AE41-A3157A7C7D74}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3680" yWindow="4300" windowWidth="28040" windowHeight="15800" xr2:uid="{E8F754B0-06CB-C746-BCF9-8BE2A757031D}"/>
+    <workbookView xWindow="3680" yWindow="4300" windowWidth="28040" windowHeight="15800" xr2:uid="{E8F754B0-06CB-C746-BCF9-8BE2A757031D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC86DDE-7DA1-7642-8C1A-A7315B6109FD}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/validation_set.xlsx
+++ b/data/validation_set.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockmtnins-my.sharepoint.com/personal/hamidreza_zoraghein_rmi_org/Documents/Development/rag_cft/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{2D27B883-FC49-C14C-BAB8-CB60E64C3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA13DE2E-2B5D-0D41-AE41-A3157A7C7D74}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{2D27B883-FC49-C14C-BAB8-CB60E64C3CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B1344C7-1036-1745-B9E2-A6C3BE8C2EDF}"/>
   <bookViews>
     <workbookView xWindow="3680" yWindow="4300" windowWidth="28040" windowHeight="15800" xr2:uid="{E8F754B0-06CB-C746-BCF9-8BE2A757031D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>What proportion of sites will cross the 5-MW charging capacity threshold in 2030?</t>
   </si>
@@ -49,12 +49,6 @@
 a reference, 5 MW of electric capacity is roughly equivalent to the electric demand of an 
 outdoor professional sports stadium. Depending on local system voltages, this level of 
 electric demand at a specific site may exceed the delivery limits of a typical distribution</t>
-  </si>
-  <si>
-    <t>What woul be the equivalence of a peak demand at around 40 MW?</t>
-  </si>
-  <si>
-    <t>A major industrial site</t>
   </si>
   <si>
     <t>system interconnection and therefore require interconnection to the high-voltage 
@@ -106,19 +100,6 @@
 therefore reduce costs to drivers), and allow for faster and efficient charging installations. 
 This study, undertaken by National Grid and transportation data and analytics leaders 
 CALSTART, RMI, Stable Auto, and Geotab, intends to inform public policy, long-term system</t>
-  </si>
-  <si>
-    <t>What is the source of MHDV modeling in the electric highways study?</t>
-  </si>
-  <si>
-    <t>Geotab’s ITS Altitude platform</t>
-  </si>
-  <si>
-    <t>MHDVs will operate similarly to existing internal combustion engine (ICE)  MHDVs. The 
-simulation took ICE MHDV data to project where and when these vehicles would charge 
-if they were electrified. To do so, we obtained inputs from aggregated and anonymized 
-telematics data via Geotab’s ITS Altitude platform, which reflects observed distributions of 
-MHDV stops at the selected sites drawn from millions of connected vehicles in operation</t>
   </si>
   <si>
     <t>Did this study acount for campetitive charging in MHDV assessment and what would be its effect?</t>
@@ -192,6 +173,12 @@
   </si>
   <si>
     <t>expected_output</t>
+  </si>
+  <si>
+    <t>What woul be the equivalence of a peak demand at around 5 MW?</t>
+  </si>
+  <si>
+    <t>A stadium</t>
   </si>
 </sst>
 </file>
@@ -566,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC86DDE-7DA1-7642-8C1A-A7315B6109FD}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,13 +568,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -603,101 +590,90 @@
     </row>
     <row r="3" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
